--- a/Vormessung/Scheinwerfer/Vormessung ETC S4 Lustr 2.xlsx
+++ b/Vormessung/Scheinwerfer/Vormessung ETC S4 Lustr 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heldm\Documents\Bachelor Thesis\BA-RedTail\Vormessung\Scheinwerfer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB2C2DC-2A1E-490E-8497-0A06BB9AB3B5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0A2C43-D909-4877-8B4B-BFC0240D18F5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vormessung" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="72">
   <si>
     <t>Pretest:</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Blood Red</t>
+  </si>
+  <si>
+    <t>Indigo</t>
   </si>
 </sst>
 </file>
@@ -831,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
@@ -853,7 +856,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="H2" s="1">
-        <v>6000</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="14.4">
@@ -922,7 +925,7 @@
         <v>21</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
@@ -946,15 +949,33 @@
       <c r="F4" s="4">
         <v>50</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
+      <c r="G4" s="14">
+        <v>560</v>
+      </c>
+      <c r="H4" s="14">
+        <v>3880</v>
+      </c>
+      <c r="I4" s="14">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="J4" s="14">
+        <v>93</v>
+      </c>
+      <c r="K4" s="3">
+        <v>93</v>
+      </c>
+      <c r="L4" s="14">
+        <v>94</v>
+      </c>
+      <c r="M4" s="14">
+        <v>103</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0.38619999999999999</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0.38109999999999999</v>
+      </c>
       <c r="P4" s="2">
         <v>0</v>
       </c>
@@ -1004,24 +1025,56 @@
       <c r="F5" s="4">
         <v>50</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
+      <c r="G5" s="14">
+        <v>345.2</v>
+      </c>
+      <c r="H5" s="14">
+        <v>5596</v>
+      </c>
+      <c r="I5" s="14">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J5" s="14">
+        <v>97</v>
+      </c>
+      <c r="K5" s="15">
+        <v>93</v>
+      </c>
+      <c r="L5" s="14">
+        <v>95</v>
+      </c>
+      <c r="M5" s="14">
+        <v>101</v>
+      </c>
+      <c r="N5" s="14">
+        <v>0.33029999999999998</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0.33989999999999998</v>
+      </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
+      <c r="R5" s="16">
+        <v>30</v>
+      </c>
+      <c r="S5" s="16">
+        <v>40.5</v>
+      </c>
+      <c r="T5" s="16">
+        <v>100</v>
+      </c>
+      <c r="U5" s="16">
+        <v>60</v>
+      </c>
+      <c r="V5" s="16">
+        <v>100</v>
+      </c>
+      <c r="W5" s="16">
+        <v>61</v>
+      </c>
+      <c r="X5" s="16">
+        <v>100</v>
+      </c>
       <c r="Y5" s="17"/>
       <c r="Z5" s="17"/>
       <c r="AA5" s="17"/>
@@ -1119,7 +1172,7 @@
         <v>21</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="14.4">
@@ -1155,19 +1208,19 @@
       <c r="F11" s="31"/>
       <c r="G11" s="19">
         <f>(G$5-G4)</f>
-        <v>0</v>
+        <v>-214.8</v>
       </c>
       <c r="H11" s="19">
         <f t="shared" ref="H11:X11" si="0">(H$5-H4)</f>
-        <v>0</v>
+        <v>1716</v>
       </c>
       <c r="I11" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
       <c r="J11" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K11" s="19">
         <f t="shared" si="0"/>
@@ -1175,19 +1228,19 @@
       </c>
       <c r="L11" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N11" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-5.5900000000000005E-2</v>
       </c>
       <c r="O11" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.1200000000000014E-2</v>
       </c>
       <c r="P11" s="19">
         <f t="shared" si="0"/>
@@ -1199,31 +1252,31 @@
       </c>
       <c r="R11" s="19">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>-70</v>
       </c>
       <c r="S11" s="19">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>-59.5</v>
       </c>
       <c r="T11" s="19">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U11" s="19">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>-40</v>
       </c>
       <c r="V11" s="19">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W11" s="19">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>-39</v>
       </c>
       <c r="X11" s="19">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1235,39 +1288,39 @@
       <c r="F12" s="31"/>
       <c r="G12" s="4">
         <f t="shared" ref="G12:X12" si="1">G6-G5</f>
-        <v>0</v>
+        <v>-345.2</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-5596</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2.9999999999999997E-4</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-97</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-93</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-101</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.33029999999999998</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.33989999999999998</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="1"/>
@@ -1279,36 +1332,36 @@
       </c>
       <c r="R12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="S12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-40.5</v>
       </c>
       <c r="T12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="V12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-61</v>
       </c>
       <c r="X12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="D21" s="20">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>35</v>
@@ -1480,7 +1533,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
@@ -1603,31 +1658,31 @@
       <c r="O5" s="14"/>
       <c r="P5" s="16">
         <f>Vormessung!R$5</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="16">
         <f>Vormessung!S$5</f>
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="R5" s="16">
         <f>Vormessung!T$5</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S5" s="16">
         <f>Vormessung!U$5</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="T5" s="16">
         <f>Vormessung!V$5</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U5" s="16">
         <f>Vormessung!W$5</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="V5" s="16">
         <f>Vormessung!X$5</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W5" s="16">
         <v>0</v>
@@ -1647,23 +1702,57 @@
       <c r="F6" s="4">
         <v>50</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
+      <c r="G6" s="14">
+        <v>344.3</v>
+      </c>
+      <c r="H6" s="14">
+        <v>5607</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>96</v>
+      </c>
+      <c r="K6" s="15">
+        <v>99</v>
+      </c>
+      <c r="L6" s="14">
+        <v>96</v>
+      </c>
+      <c r="M6" s="14">
+        <v>101</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0.3301</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0.33989999999999998</v>
+      </c>
+      <c r="P6" s="14">
+        <v>21.5</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>42</v>
+      </c>
+      <c r="R6" s="14">
+        <v>100</v>
+      </c>
+      <c r="S6" s="14">
+        <v>60</v>
+      </c>
+      <c r="T6" s="14">
+        <v>100</v>
+      </c>
+      <c r="U6" s="14">
+        <v>61</v>
+      </c>
+      <c r="V6" s="14">
+        <v>100</v>
+      </c>
+      <c r="W6" s="14">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:40" ht="14.4">
       <c r="B7" s="37" t="s">
@@ -1690,31 +1779,31 @@
       <c r="O7" s="14"/>
       <c r="P7" s="16">
         <f t="shared" ref="P7:V8" si="0">P5</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="R7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="T7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="V7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W7" s="16">
         <v>100</v>
@@ -1748,31 +1837,31 @@
       <c r="O8" s="14"/>
       <c r="P8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="Q8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="R8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="T8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="V8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W8" s="16">
         <v>100</v>
@@ -1853,11 +1942,11 @@
     <row r="12" spans="1:40" ht="14.4">
       <c r="G12" s="19">
         <f t="shared" ref="G12:W12" si="1">(G$6-G5)</f>
-        <v>0</v>
+        <v>344.3</v>
       </c>
       <c r="H12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5607</v>
       </c>
       <c r="I12" s="19">
         <f t="shared" si="1"/>
@@ -1865,35 +1954,35 @@
       </c>
       <c r="J12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="K12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="M12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="N12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.3301</v>
       </c>
       <c r="O12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33989999999999998</v>
       </c>
       <c r="P12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-8.5</v>
       </c>
       <c r="Q12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R12" s="19">
         <f t="shared" si="1"/>
@@ -1917,7 +2006,7 @@
       </c>
       <c r="W12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -1993,11 +2082,11 @@
     <row r="14" spans="1:40">
       <c r="G14" s="4">
         <f t="shared" ref="G14:W14" si="3">G8-G6</f>
-        <v>500</v>
+        <v>155.69999999999999</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-5607</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="3"/>
@@ -2005,27 +2094,27 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-96</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-96</v>
       </c>
       <c r="M14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-101</v>
       </c>
       <c r="N14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.3301</v>
       </c>
       <c r="O14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.33989999999999998</v>
       </c>
       <c r="P14" s="4">
         <f t="shared" si="3"/>
@@ -2057,7 +2146,7 @@
       </c>
       <c r="W14" s="4">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:40">
@@ -2126,7 +2215,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
@@ -2275,31 +2366,31 @@
       <c r="O5" s="14"/>
       <c r="P5" s="16">
         <f>Vormessung!R$5</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="16">
         <f>Vormessung!S$5</f>
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="R5" s="16">
         <f>Vormessung!T$5</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S5" s="16">
         <f>Vormessung!U$5</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="T5" s="16">
         <f>Vormessung!V$5</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U5" s="16">
         <f>Vormessung!W$5</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="V5" s="16">
         <f>Vormessung!X$5</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W5" s="16">
         <f>Vormessung!Y$5</f>
@@ -2330,22 +2421,54 @@
       <c r="F6" s="4">
         <v>50</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
+      <c r="G6" s="14">
+        <v>340.6</v>
+      </c>
+      <c r="H6" s="14">
+        <v>5593</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>93</v>
+      </c>
+      <c r="K6" s="15">
+        <v>99</v>
+      </c>
+      <c r="L6" s="14">
+        <v>95</v>
+      </c>
+      <c r="M6" s="14">
+        <v>103</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0.33040000000000003</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="P6" s="14">
+        <v>29.5</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>41.5</v>
+      </c>
+      <c r="R6" s="14">
+        <v>100</v>
+      </c>
+      <c r="S6" s="14">
+        <v>52</v>
+      </c>
+      <c r="T6" s="14">
+        <v>100</v>
+      </c>
+      <c r="U6" s="14">
+        <v>61</v>
+      </c>
+      <c r="V6" s="14">
+        <v>100</v>
+      </c>
       <c r="W6" s="14"/>
       <c r="X6" s="29"/>
       <c r="Y6" s="30"/>
@@ -2383,31 +2506,31 @@
       <c r="O7" s="14"/>
       <c r="P7" s="16">
         <f t="shared" ref="P7:V8" si="0">P5</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="R7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="T7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="V7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W7" s="16">
         <v>100</v>
@@ -2450,31 +2573,31 @@
       <c r="O8" s="14"/>
       <c r="P8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="Q8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="R8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="T8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="V8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W8" s="16">
         <v>100</v>
@@ -2597,11 +2720,11 @@
     <row r="12" spans="1:33" ht="14.4">
       <c r="G12" s="19">
         <f t="shared" ref="G12:W12" si="1">(G$6-G5)</f>
-        <v>0</v>
+        <v>340.6</v>
       </c>
       <c r="H12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5593</v>
       </c>
       <c r="I12" s="19">
         <f t="shared" si="1"/>
@@ -2609,35 +2732,35 @@
       </c>
       <c r="J12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="K12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="N12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33040000000000003</v>
       </c>
       <c r="O12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="P12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="19">
         <f t="shared" si="1"/>
@@ -2645,7 +2768,7 @@
       </c>
       <c r="S12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="T12" s="19">
         <f t="shared" si="1"/>
@@ -2757,11 +2880,11 @@
     <row r="14" spans="1:33">
       <c r="G14" s="4">
         <f t="shared" ref="G14:W14" si="3">G8-G6</f>
-        <v>500</v>
+        <v>159.39999999999998</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-5593</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="3"/>
@@ -2769,27 +2892,27 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-93</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="M14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-103</v>
       </c>
       <c r="N14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.33040000000000003</v>
       </c>
       <c r="O14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.33800000000000002</v>
       </c>
       <c r="P14" s="4">
         <f t="shared" si="3"/>
@@ -4189,7 +4312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -4337,31 +4460,31 @@
       <c r="O5" s="14"/>
       <c r="P5" s="16">
         <f>Vormessung!R$5</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="16">
         <f>Vormessung!S$5</f>
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="R5" s="16">
         <f>Vormessung!T$5</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S5" s="16">
         <f>Vormessung!U$5</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="T5" s="16">
         <f>Vormessung!V$5</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U5" s="16">
         <f>Vormessung!W$5</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="V5" s="16">
         <f>Vormessung!X$5</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W5" s="16">
         <f>Vormessung!Y$5</f>
@@ -4445,31 +4568,31 @@
       <c r="O7" s="14"/>
       <c r="P7" s="16">
         <f t="shared" ref="P7:V8" si="0">P5</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="R7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="T7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="V7" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W7" s="16">
         <v>100</v>
@@ -4690,31 +4813,31 @@
       </c>
       <c r="P12" s="19">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="Q12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-40.5</v>
       </c>
       <c r="R12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="T12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-61</v>
       </c>
       <c r="V12" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W12" s="19">
         <f t="shared" si="1"/>
